--- a/result/gr100_05_simulated/details.xlsx
+++ b/result/gr100_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8229990005493164</v>
+        <v>0.7397403717041016</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4368.906641622551</v>
+        <v>4432.100724521545</v>
       </c>
       <c r="F2" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09774072759456898</v>
+        <v>0.1006509244510039</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09774072759456898</v>
+        <v>0.1006509244510039</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09382767397217678</v>
+        <v>0.1006509244510039</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09382767397217678</v>
+        <v>0.0998012603099043</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09382767397217678</v>
+        <v>0.09644153875249714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09382767397217678</v>
+        <v>0.09644153875249714</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09382767397217678</v>
+        <v>0.09644153875249714</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09362427140570792</v>
+        <v>0.09644153875249714</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09362427140570792</v>
+        <v>0.09644153875249714</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09331273162278864</v>
+        <v>0.09504701135541072</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09331273162278864</v>
+        <v>0.09504701135541072</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09331273162278864</v>
+        <v>0.09504701135541072</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09331273162278864</v>
+        <v>0.09499665151736289</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09328279325133412</v>
+        <v>0.09499665151736289</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09323128105499129</v>
+        <v>0.09499665151736289</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09323128105499129</v>
+        <v>0.09470302653012871</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09323128105499129</v>
+        <v>0.09443318179132074</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09316387215638497</v>
+        <v>0.09439572562420165</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09316387215638497</v>
+        <v>0.09439572562420165</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8180005550384521</v>
+        <v>0.8540639877319336</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4368.75653726428</v>
+        <v>4419.639015056016</v>
       </c>
       <c r="F3" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09482473624903459</v>
+        <v>0.1010528132146395</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09376071363627478</v>
+        <v>0.1010528132146395</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09376071363627478</v>
+        <v>0.09834351336382258</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09376071363627478</v>
+        <v>0.097815640517698</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09376071363627478</v>
+        <v>0.097815640517698</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09376071363627478</v>
+        <v>0.097815640517698</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09376071363627478</v>
+        <v>0.097815640517698</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09376071363627478</v>
+        <v>0.097815640517698</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09363973253799379</v>
+        <v>0.09691305972859751</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09363973253799379</v>
+        <v>0.09691305972859751</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09322642067617654</v>
+        <v>0.09691305972859751</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09322642067617654</v>
+        <v>0.09596795759226556</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09322595224214328</v>
+        <v>0.09470732940406171</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09322595224214328</v>
+        <v>0.09470732940406171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09322595224214328</v>
+        <v>0.09470732940406171</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09316569108812287</v>
+        <v>0.09415760289339867</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09316161065980647</v>
+        <v>0.09415760289339867</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09316094614550252</v>
+        <v>0.09415760289339867</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09316094614550252</v>
+        <v>0.09415280731103343</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7680368423461914</v>
+        <v>0.7959372997283936</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4396.365157963131</v>
+        <v>4373.383029285585</v>
       </c>
       <c r="F4" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1051727068256832</v>
+        <v>0.09857589607701014</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09892646909081471</v>
+        <v>0.09438767143613172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09590783917962617</v>
+        <v>0.09431317227244521</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09590783917962617</v>
+        <v>0.09431317227244521</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09590783917962617</v>
+        <v>0.09431317227244521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09572297130798704</v>
+        <v>0.09431317227244521</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09572297130798704</v>
+        <v>0.09407006513978894</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09572297130798704</v>
+        <v>0.09407006513978894</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09488125325613353</v>
+        <v>0.09392110366297235</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09376133606491552</v>
+        <v>0.09339634563145457</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.09376133606491552</v>
+        <v>0.09339634563145457</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09376133606491552</v>
+        <v>0.09339634563145457</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09376133606491552</v>
+        <v>0.09339634563145457</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09376133606491552</v>
+        <v>0.09325113117515757</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09376133606491552</v>
+        <v>0.09325113117515757</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09376133606491552</v>
+        <v>0.09325113117515757</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09371991242993252</v>
+        <v>0.09325113117515757</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09369912588622084</v>
+        <v>0.09325113117515757</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09369912588622084</v>
+        <v>0.09325113117515757</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7819957733154297</v>
+        <v>0.7499995231628418</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4362.668152872933</v>
+        <v>4359.664404189797</v>
       </c>
       <c r="F5" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09358935995341297</v>
+        <v>0.1025310626375835</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09358935995341297</v>
+        <v>0.1006829219552243</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09358935995341297</v>
+        <v>0.09759714805102515</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09358935995341297</v>
+        <v>0.09698229653628856</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09358935995341297</v>
+        <v>0.09698229653628856</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09330663431109326</v>
+        <v>0.09333101260587309</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09330663431109326</v>
+        <v>0.09333101260587309</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09330663431109326</v>
+        <v>0.09333101260587309</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09330663431109326</v>
+        <v>0.09333101260587309</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09330663431109326</v>
+        <v>0.09333101260587309</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09330663431109326</v>
+        <v>0.09333101260587309</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0930726684183201</v>
+        <v>0.09333101260587309</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0930726684183201</v>
+        <v>0.09326650462032929</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0930726684183201</v>
+        <v>0.09326650462032929</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0930726684183201</v>
+        <v>0.09326650462032929</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0930726684183201</v>
+        <v>0.09308273543073639</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0930726684183201</v>
+        <v>0.09308273543073639</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09304226418855618</v>
+        <v>0.09299423989880842</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09304226418855618</v>
+        <v>0.09298371158264709</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7919585704803467</v>
+        <v>0.7499995231628418</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>4367.277997437368</v>
+        <v>4359.505261918309</v>
       </c>
       <c r="F6" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09803339153651644</v>
+        <v>0.1002683146796879</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09422713697664639</v>
+        <v>0.09746240666987097</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09746240666987097</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09746240666987097</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09746240666987097</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09620157530633339</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09620157530633339</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09620157530633339</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09527995480605791</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09527995480605791</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09327249079894356</v>
+        <v>0.09304433697650311</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09325848677685142</v>
+        <v>0.09304433697650311</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09325848677685142</v>
+        <v>0.09304433697650311</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09318980414339251</v>
+        <v>0.09304433697650311</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09318980414339251</v>
+        <v>0.09304433697650311</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09313212470638141</v>
+        <v>0.09304433697650311</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09313212470638141</v>
+        <v>0.09304136648066039</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09313212470638141</v>
+        <v>0.09299342909772396</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09313212470638141</v>
+        <v>0.09298060939411906</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7680253982543945</v>
+        <v>0.75</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4370.254103653771</v>
+        <v>4355.198026534794</v>
       </c>
       <c r="F7" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09940421660110368</v>
+        <v>0.1027405855027473</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09467180779232659</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09467180779232659</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09467180779232659</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09467180779232659</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09403915175900121</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09388755658623107</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09355543099177882</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09299508323591832</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09289664769073672</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09289664769073672</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09289664769073672</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09289664769073672</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09289664769073672</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09323214659862192</v>
+        <v>0.09289664769073672</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09321533417737674</v>
+        <v>0.09289664769073672</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.09319013847278304</v>
+        <v>0.09289664769073672</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8139843940734863</v>
+        <v>0.7500007152557373</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4399.384328703141</v>
+        <v>4366.22472262697</v>
       </c>
       <c r="F8" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1036661008206398</v>
+        <v>0.1008145362536919</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1036661008206398</v>
+        <v>0.09414456799122095</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1036661008206398</v>
+        <v>0.09414456799122095</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09887953070639519</v>
+        <v>0.09414456799122095</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09887953070639519</v>
+        <v>0.0937759268227244</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09565859865006254</v>
+        <v>0.0937759268227244</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09421078192224244</v>
+        <v>0.0937759268227244</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09421078192224244</v>
+        <v>0.0937759268227244</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09421078192224244</v>
+        <v>0.0934328585154385</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09397538493692817</v>
+        <v>0.09340251952258052</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09397538493692817</v>
+        <v>0.09340251952258052</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09397538493692817</v>
+        <v>0.09340251952258052</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09397538493692817</v>
+        <v>0.09340251952258052</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09380654905788263</v>
+        <v>0.09340251952258052</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09380654905788263</v>
+        <v>0.09328810381095509</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09380654905788263</v>
+        <v>0.09321936165036326</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0937589074187852</v>
+        <v>0.09321936165036326</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0937589074187852</v>
+        <v>0.09321936165036326</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09375797911702027</v>
+        <v>0.09311159303366412</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8040103912353516</v>
+        <v>0.7187490463256836</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>4418.828836430715</v>
+        <v>4415.032113387887</v>
       </c>
       <c r="F9" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1009493679499779</v>
+        <v>0.09935604244664364</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09728450960875831</v>
+        <v>0.09935604244664364</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09728450960875831</v>
+        <v>0.09910093414134508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09728450960875831</v>
+        <v>0.09782516742229239</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09728450960875831</v>
+        <v>0.09765355444904092</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09570038192307359</v>
+        <v>0.09486511341133677</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09570038192307359</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09570038192307359</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09570038192307359</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09506822857905012</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09470363603576673</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09470363603576673</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09440031288163536</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09439838284174634</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09439838284174634</v>
+        <v>0.09444921745876</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09439838284174634</v>
+        <v>0.09438434236543031</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09413930190972566</v>
+        <v>0.0943112291509059</v>
       </c>
       <c r="X9" t="n">
-        <v>0.09413930190972566</v>
+        <v>0.09406365976125713</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09413701435537455</v>
+        <v>0.09406300415960792</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7589640617370605</v>
+        <v>0.7656230926513672</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4355.343212759028</v>
+        <v>4374.698399875145</v>
       </c>
       <c r="F10" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09921005380038292</v>
+        <v>0.1026872366763494</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09921005380038292</v>
+        <v>0.09448790280966815</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09327353536858757</v>
+        <v>0.09448790280966815</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09327353536858757</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09327353536858757</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09327353536858757</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09327353536858757</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09338716074647138</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09333675714086492</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09333675714086492</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09333675714086492</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09333675714086492</v>
       </c>
       <c r="V10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09327677192739073</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09327677192739073</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09327677192739073</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09289947783155997</v>
+        <v>0.09327677192739073</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8646137714385986</v>
+        <v>0.7500112056732178</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>4362.778064372599</v>
+        <v>4384.671138216754</v>
       </c>
       <c r="F11" t="n">
         <v>0.1189936417767273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09609439202695821</v>
+        <v>0.1023664668111599</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09485913857059894</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09423463894561165</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09314186712276942</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09314186712276942</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.09362718720498697</v>
       </c>
       <c r="P11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.0935271225131821</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.0935271225131821</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.0935271225131821</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.0935271225131821</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.0935271225131821</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.0935271225131821</v>
       </c>
       <c r="V11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.09347117228492696</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09307350773411391</v>
+        <v>0.09347117228492696</v>
       </c>
       <c r="X11" t="n">
-        <v>0.09305497940088592</v>
+        <v>0.09347117228492696</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.09304440671291614</v>
+        <v>0.09347117228492696</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_05_simulated/details.xlsx
+++ b/result/gr100_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7397403717041016</v>
+        <v>1.913996934890747</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4432.100724521545</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1006509244510039</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1006509244510039</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1006509244510039</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0998012603099043</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09644153875249714</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09644153875249714</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09644153875249714</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09644153875249714</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09644153875249714</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09504701135541072</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09504701135541072</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09504701135541072</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09499665151736289</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09499665151736289</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09499665151736289</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09470302653012871</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09443318179132074</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09439572562420165</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09439572562420165</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8540639877319336</v>
+        <v>1.639001607894897</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>4419.639015056016</v>
+        <v>4744.749434140682</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1010528132146395</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1010528132146395</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09834351336382258</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="J3" t="n">
-        <v>0.097815640517698</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="K3" t="n">
-        <v>0.097815640517698</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="L3" t="n">
-        <v>0.097815640517698</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="M3" t="n">
-        <v>0.097815640517698</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="N3" t="n">
-        <v>0.097815640517698</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09691305972859751</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09691305972859751</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09691305972859751</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09596795759226556</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09470732940406171</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09470732940406171</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09470732940406171</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09415760289339867</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09415760289339867</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09415760289339867</v>
+        <v>0.10849024238091</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09415280731103343</v>
+        <v>0.10849024238091</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7959372997283936</v>
+        <v>1.743045091629028</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>4373.383029285585</v>
+        <v>4744.623808702443</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09857589607701014</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09438767143613172</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09431317227244521</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09431317227244521</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09431317227244521</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09431317227244521</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09407006513978894</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09407006513978894</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09392110366297235</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09339634563145457</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.09339634563145457</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09339634563145457</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09339634563145457</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09325113117515757</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09325113117515757</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09325113117515757</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09325113117515757</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09325113117515757</v>
+        <v>0.1084877935419579</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09325113117515757</v>
+        <v>0.1084877935419579</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7499995231628418</v>
+        <v>1.781957149505615</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>4359.664404189797</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1025310626375835</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1006829219552243</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09759714805102515</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09698229653628856</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09698229653628856</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09333101260587309</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09333101260587309</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09333101260587309</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09333101260587309</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09333101260587309</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09333101260587309</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09333101260587309</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09326650462032929</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09326650462032929</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09326650462032929</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09308273543073639</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09308273543073639</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09299423989880842</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09298371158264709</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7499995231628418</v>
+        <v>1.54004693031311</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4359.505261918309</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1002683146796879</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09746240666987097</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09746240666987097</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09746240666987097</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09746240666987097</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09620157530633339</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09620157530633339</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09620157530633339</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09527995480605791</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09527995480605791</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09304433697650311</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09304433697650311</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09304433697650311</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09304433697650311</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09304433697650311</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09304433697650311</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09304136648066039</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09299342909772396</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09298060939411906</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.75</v>
+        <v>1.682036399841309</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>4355.198026534794</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1027405855027473</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09299508323591832</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.09289664769073672</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7500007152557373</v>
+        <v>1.742958545684814</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>4366.22472262697</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1008145362536919</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09414456799122095</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09414456799122095</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09414456799122095</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0937759268227244</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0937759268227244</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0937759268227244</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0937759268227244</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0934328585154385</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09340251952258052</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09340251952258052</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09340251952258052</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09340251952258052</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09340251952258052</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09328810381095509</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09321936165036326</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W8" t="n">
-        <v>0.09321936165036326</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X8" t="n">
-        <v>0.09321936165036326</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09311159303366412</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7187490463256836</v>
+        <v>1.659996747970581</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>4415.032113387887</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09935604244664364</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09935604244664364</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09910093414134508</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09782516742229239</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09765355444904092</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09486511341133677</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09444921745876</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09438434236543031</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0943112291509059</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X9" t="n">
-        <v>0.09406365976125713</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09406300415960792</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7656230926513672</v>
+        <v>1.651997327804565</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>4374.698399875145</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1026872366763494</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09448790280966815</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09448790280966815</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09338716074647138</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09333675714086492</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09333675714086492</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09333675714086492</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09333675714086492</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V10" t="n">
-        <v>0.09327677192739073</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09327677192739073</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09327677192739073</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09327677192739073</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7500112056732178</v>
+        <v>1.836002111434937</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>4384.671138216754</v>
+        <v>4745.685246913603</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1189936417767273</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1023664668111599</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09362718720498697</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0935271225131821</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0935271225131821</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0935271225131821</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0935271225131821</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0935271225131821</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0935271225131821</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="V11" t="n">
-        <v>0.09347117228492696</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09347117228492696</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="X11" t="n">
-        <v>0.09347117228492696</v>
+        <v>0.1085084843452944</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.09347117228492696</v>
+        <v>0.1085084843452944</v>
       </c>
     </row>
   </sheetData>
